--- a/cctvNews_2020.xlsx
+++ b/cctvNews_2020.xlsx
@@ -15,14 +15,14 @@
     <sheet name="cctvNews_update" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cctvNews_update!$A$1:$D$263</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cctvNews_update!$A$1:$D$261</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="605">
   <si>
     <t>新年戏曲晚会在京举行</t>
   </si>
@@ -345,9 +345,6 @@
     <t>云南腾冲：志愿服务队助力乡村治理</t>
   </si>
   <si>
-    <t>云南腾冲积极推进志愿服务，近年来组织了1200多支形式多样的志愿者服务队伍，让志愿服务成为乡村治理的强力“催化剂”。在腾冲市明光镇自治小学，由学校老师和村里的文化传承人等组成的文艺志愿者服务队正在为孩子们编排原生态的傈僳族歌舞。下个月，他们将首次走出大山，前往澳门参加比赛。在腾冲，这样的志愿者服务队伍有很多。当地把志愿服务与基层党组织的战斗堡垒作用、村民自我治理功能相结合，动员村民组成文艺表演、邻里互助、净化村容村貌等志愿者服务队伍，用火塘会、田埂会等方式丰富文化生活，调解邻里纠纷、化解家庭矛盾，促进乡村治理。2018年以来，腾冲市已经建立起1200多支由县、乡、村、组四级志愿者组成的服务队伍，打通了服务群众的最后一公里，让群众在基层自治中实现自我服务、自我治理。</t>
-  </si>
-  <si>
     <t>【在习近平新时代中国特色社会主义思想指引下——新时代 新作为 新篇章】接诉即办：牵引首都基层治理创新</t>
   </si>
   <si>
@@ -901,12 +898,6 @@
   </si>
   <si>
     <t>本台今天（2月20日）播发央视快评《致敬最美“逆行者”》。</t>
-  </si>
-  <si>
-    <t>【新闻特写】闲不住的老张</t>
-  </si>
-  <si>
-    <t>方舱医院治疗的都是新冠肺炎的轻症患者，由于人数众多，医务人员十分辛苦。在武汉洪山体育馆方舱医院，一些身体康复较好的病友们自发组织起来协助医务人员分担工作，老张就是其中之一。这位正在帮助医生张罗事的人就是老张，2月5日因为确诊新冠肺炎入住方舱医院。老张的全名叫张兵，是武汉市公安局洪山区交通大队负责信访工作的民警。经过这一段的治疗和护理，他的病情逐渐好转，看着照顾自己的医护人员那么忙，老张也不想闲着。看到方舱医院保洁任务重，老张就和同住一个病区的老肖一起每天帮大家打扫、清运垃圾。老张他们的志愿服务也带动越来越多的病友加入到他们的行列。如今，老张已经建起了方舱医院病友群，组织党员病友率先实行分区管理，协助药品分发、病区保洁、收集解答病友提问等工作，减轻医护人员的负担。每到饭点都是他们最忙的时候。作为患者，老张非常清楚大家渴望康复的心情，为了缓解大家的焦虑，他们在病区整理出一个图书角，把社会捐赠的书籍放在一起供大家阅读，一点点康复的日子在书本间度过。</t>
   </si>
   <si>
     <t>四川藏区告别贫困</t>
@@ -1438,12 +1429,6 @@
     <t>越是面对风险挑战，越要稳住农业。春耕备耕大忙时节，各地一手抓防控，一手促生产，有力有序推进春耕备耕，确保粮食产量稳定。今年夏粮播种面积超过4.24亿亩，面积保持稳定。刚刚过去的暖冬，使得夏粮抗寒锻炼不够，病源基数大。农业农村部专家组正在江苏、安徽等地指导推动相关技术措施落实到田。冬小麦是主要夏粮品种，面积3.32亿亩。正值田间管理关键时期，受疫情影响，河南清丰不少种粮大户遭遇用工短缺，当地及时组织合作社结对子帮扶。夏粮主要油料作物冬油菜今年播种面积9200多万亩，同比增加270万亩。目前，重点要预防油菜菌核病。为了提升防治效果，今年，浙江长兴推广飞机统防统治。今年，国家将完成8000万亩高标准农田建设。在湖南永顺，当地优化施工组织，推进高标准农田建设复工。春耕备耕，农资先行。在安徽颍上，当地为有资质的农资经营户开具通行证，点对点送货上门。农时不等人，农业农村部等多部门成立全国春耕农资应急调度保供组，协调解决春耕农资生产、流通、供应中的突出问题。</t>
   </si>
   <si>
-    <t>【新闻特写】方舱里的“梦想自习室”</t>
-  </si>
-  <si>
-    <t>在武昌方舱医院里有一位患新冠肺炎的高三女孩，在舱内治疗的这些日子里，她每天坚持学习，备战高考，她说她的梦想是当一名老师。今年19岁的高三学生小付被确诊为新冠肺炎后，2月21日被收治到武昌方舱医院。虽然在高三的关键时期生病隔离，但小付并没有被挫折打倒。下午2点半，小付整理好书包去上下午的网课了，她上课的地方就是距她床位不足20米的医疗用品库房，这是医护人员特地为她整理的临时自习室，虽然稍显凌乱，可医护人员们给它起了一个非常好听的名字“梦开始的教室”。为了提醒自己，小付给自己制定了一个学习计划表贴在了床头。7点半早自习，网课上到中午12点，下午1点半开始预习，晚上9点40完成最后一节英语。小付说，有医务人员和大家的关爱和照顾，她现在每天都可以在“梦开始的教室”里按时上课。高考在即，小付说，她将为了梦想而战，不会放弃。</t>
-  </si>
-  <si>
     <t>本台今天（3月1日）播发央视快评《全面提高依法防控依法治理能力》。</t>
   </si>
   <si>
@@ -2086,6 +2071,10 @@
   <si>
     <t>沙特</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云南腾冲积极推进志愿服务，近年来组织了1200多支形式多样的志愿者服务队伍，让志愿服务成为乡村治理的强力“催化剂”。在腾冲市明光镇自治小学，由学校老师和村里的文化传承人等组成的文艺志愿者服务队正在为孩子们编排原生态的傈僳族歌舞。下个月，他们将首次走出大山，前往澳门参加比赛。在腾冲，这样的志愿者服务队伍有很多。当地把志愿服务与基层党组织的战斗堡垒作用、村民自我治理功能相结合，动员村民组成文艺表演、邻里互助、净化村容村貌等志愿者服务队伍，用火塘会、田埂会等方式丰富文化生活，调解邻里纠纷、化解家庭矛盾，促进乡村治理。2018年以来，腾冲市已经建立起1200多支由县、乡、村、组四级志愿者组成的服务队伍，打通了服务群众的最后一公里，让群众在基层自治中实现自我服务、自我治理。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3030,10 +3019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E263"/>
+  <dimension ref="A1:E261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
-      <selection activeCell="A253" sqref="A253"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C247" sqref="C247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3061,7 +3050,7 @@
         <v>20200101</v>
       </c>
       <c r="B2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -3075,7 +3064,7 @@
         <v>20200101</v>
       </c>
       <c r="B3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -3089,7 +3078,7 @@
         <v>20200101</v>
       </c>
       <c r="B4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -3103,7 +3092,7 @@
         <v>20200101</v>
       </c>
       <c r="B5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -3117,7 +3106,7 @@
         <v>20200101</v>
       </c>
       <c r="B6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -3131,7 +3120,7 @@
         <v>20200101</v>
       </c>
       <c r="B7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -3145,10 +3134,10 @@
         <v>20200101</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>4</v>
@@ -3159,7 +3148,7 @@
         <v>20200102</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -3173,7 +3162,7 @@
         <v>20200102</v>
       </c>
       <c r="B10" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -3187,7 +3176,7 @@
         <v>20200102</v>
       </c>
       <c r="B11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -3201,7 +3190,7 @@
         <v>20200102</v>
       </c>
       <c r="B12" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -3215,10 +3204,10 @@
         <v>20200102</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>21</v>
@@ -3229,10 +3218,10 @@
         <v>20200102</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>18</v>
@@ -3243,7 +3232,7 @@
         <v>20200103</v>
       </c>
       <c r="B15" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
@@ -3257,7 +3246,7 @@
         <v>20200103</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>24</v>
@@ -3293,7 +3282,7 @@
         <v>20200104</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C19" t="s">
         <v>33</v>
@@ -3307,7 +3296,7 @@
         <v>20200104</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
@@ -3321,7 +3310,7 @@
         <v>20200104</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>37</v>
@@ -3335,7 +3324,7 @@
         <v>20200104</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>24</v>
@@ -3349,7 +3338,7 @@
         <v>20200105</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C23" t="s">
         <v>39</v>
@@ -3363,7 +3352,7 @@
         <v>20200105</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C24" t="s">
         <v>41</v>
@@ -3388,7 +3377,7 @@
         <v>20200105</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>48</v>
@@ -3402,7 +3391,7 @@
         <v>20200105</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>46</v>
@@ -3416,7 +3405,7 @@
         <v>20200105</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>17</v>
@@ -3431,10 +3420,10 @@
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -3442,7 +3431,7 @@
         <v>20200106</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C30" t="s">
         <v>51</v>
@@ -3456,7 +3445,7 @@
         <v>20200106</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>53</v>
@@ -3470,7 +3459,7 @@
         <v>20200106</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>17</v>
@@ -3484,7 +3473,7 @@
         <v>20200107</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C33" t="s">
         <v>57</v>
@@ -3498,7 +3487,7 @@
         <v>20200107</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C34" t="s">
         <v>59</v>
@@ -3534,7 +3523,7 @@
         <v>20200107</v>
       </c>
       <c r="B37" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C37" t="s">
         <v>65</v>
@@ -3559,7 +3548,7 @@
         <v>20200107</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>55</v>
@@ -3573,7 +3562,7 @@
         <v>20200108</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C40" t="s">
         <v>71</v>
@@ -3586,6 +3575,9 @@
       <c r="A41">
         <v>20200108</v>
       </c>
+      <c r="B41" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="C41" t="s">
         <v>73</v>
       </c>
@@ -3598,7 +3590,7 @@
         <v>20200108</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>69</v>
@@ -3611,6 +3603,9 @@
       <c r="A43">
         <v>20200109</v>
       </c>
+      <c r="B43" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="C43" t="s">
         <v>81</v>
       </c>
@@ -3623,13 +3618,13 @@
         <v>20200109</v>
       </c>
       <c r="B44" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C44" t="s">
         <v>83</v>
       </c>
       <c r="D44" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -3637,7 +3632,7 @@
         <v>20200109</v>
       </c>
       <c r="B45" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C45" t="s">
         <v>84</v>
@@ -3651,7 +3646,7 @@
         <v>20200109</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>79</v>
@@ -3665,7 +3660,7 @@
         <v>20200109</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>75</v>
@@ -3679,7 +3674,7 @@
         <v>20200109</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>77</v>
@@ -3693,7 +3688,7 @@
         <v>20200110</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C49" t="s">
         <v>86</v>
@@ -3707,7 +3702,7 @@
         <v>20200110</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C50" t="s">
         <v>90</v>
@@ -3721,7 +3716,7 @@
         <v>20200110</v>
       </c>
       <c r="B51" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C51" t="s">
         <v>92</v>
@@ -3735,7 +3730,7 @@
         <v>20200110</v>
       </c>
       <c r="B52" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C52" t="s">
         <v>94</v>
@@ -3749,7 +3744,7 @@
         <v>20200110</v>
       </c>
       <c r="B53" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C53" t="s">
         <v>96</v>
@@ -3763,7 +3758,7 @@
         <v>20200110</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>88</v>
@@ -3777,7 +3772,7 @@
         <v>20200111</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C55" t="s">
         <v>100</v>
@@ -3791,7 +3786,7 @@
         <v>20200111</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C56" t="s">
         <v>102</v>
@@ -3804,6 +3799,9 @@
       <c r="A57">
         <v>20200111</v>
       </c>
+      <c r="B57" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="C57" t="s">
         <v>104</v>
       </c>
@@ -3819,7 +3817,7 @@
         <v>106</v>
       </c>
       <c r="D58" t="s">
-        <v>107</v>
+        <v>604</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -3827,7 +3825,7 @@
         <v>20200111</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>98</v>
@@ -3841,16 +3839,16 @@
         <v>20200112</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C60" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" t="s">
         <v>108</v>
       </c>
-      <c r="D60" t="s">
-        <v>109</v>
-      </c>
       <c r="E60" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -3858,13 +3856,13 @@
         <v>20200112</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C61" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" t="s">
         <v>110</v>
-      </c>
-      <c r="D61" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -3872,13 +3870,13 @@
         <v>20200112</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C62" t="s">
+        <v>111</v>
+      </c>
+      <c r="D62" t="s">
         <v>112</v>
-      </c>
-      <c r="D62" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -3886,13 +3884,13 @@
         <v>20200113</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C63" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63" t="s">
         <v>114</v>
-      </c>
-      <c r="D63" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -3900,10 +3898,10 @@
         <v>20200113</v>
       </c>
       <c r="C64" t="s">
+        <v>115</v>
+      </c>
+      <c r="D64" t="s">
         <v>116</v>
-      </c>
-      <c r="D64" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -3911,13 +3909,13 @@
         <v>20200113</v>
       </c>
       <c r="B65" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C65" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D65" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -3925,13 +3923,13 @@
         <v>20200113</v>
       </c>
       <c r="B66" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C66" t="s">
+        <v>118</v>
+      </c>
+      <c r="D66" t="s">
         <v>119</v>
-      </c>
-      <c r="D66" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -3939,13 +3937,13 @@
         <v>20200114</v>
       </c>
       <c r="B67" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D67" t="s">
         <v>121</v>
-      </c>
-      <c r="D67" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -3953,13 +3951,13 @@
         <v>20200114</v>
       </c>
       <c r="B68" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C68" t="s">
+        <v>122</v>
+      </c>
+      <c r="D68" t="s">
         <v>123</v>
-      </c>
-      <c r="D68" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -3967,13 +3965,13 @@
         <v>20200114</v>
       </c>
       <c r="B69" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C69" t="s">
+        <v>126</v>
+      </c>
+      <c r="D69" t="s">
         <v>127</v>
-      </c>
-      <c r="D69" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -3981,13 +3979,13 @@
         <v>20200114</v>
       </c>
       <c r="B70" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C70" t="s">
+        <v>128</v>
+      </c>
+      <c r="D70" t="s">
         <v>129</v>
-      </c>
-      <c r="D70" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -3995,13 +3993,13 @@
         <v>20200114</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -4009,13 +4007,13 @@
         <v>20200115</v>
       </c>
       <c r="B72" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C72" t="s">
+        <v>130</v>
+      </c>
+      <c r="D72" t="s">
         <v>131</v>
-      </c>
-      <c r="D72" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -4023,13 +4021,13 @@
         <v>20200115</v>
       </c>
       <c r="B73" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C73" t="s">
+        <v>132</v>
+      </c>
+      <c r="D73" t="s">
         <v>133</v>
-      </c>
-      <c r="D73" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -4037,10 +4035,10 @@
         <v>20200115</v>
       </c>
       <c r="C74" t="s">
+        <v>134</v>
+      </c>
+      <c r="D74" t="s">
         <v>135</v>
-      </c>
-      <c r="D74" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -4048,13 +4046,13 @@
         <v>20200115</v>
       </c>
       <c r="B75" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C75" t="s">
+        <v>136</v>
+      </c>
+      <c r="D75" t="s">
         <v>137</v>
-      </c>
-      <c r="D75" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -4062,13 +4060,13 @@
         <v>20200116</v>
       </c>
       <c r="B76" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C76" t="s">
+        <v>138</v>
+      </c>
+      <c r="D76" t="s">
         <v>139</v>
-      </c>
-      <c r="D76" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -4076,13 +4074,13 @@
         <v>20200117</v>
       </c>
       <c r="B77" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C77" t="s">
+        <v>140</v>
+      </c>
+      <c r="D77" t="s">
         <v>141</v>
-      </c>
-      <c r="D77" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -4090,10 +4088,10 @@
         <v>20200117</v>
       </c>
       <c r="C78" t="s">
+        <v>142</v>
+      </c>
+      <c r="D78" t="s">
         <v>143</v>
-      </c>
-      <c r="D78" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -4101,13 +4099,13 @@
         <v>20200117</v>
       </c>
       <c r="B79" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C79" t="s">
+        <v>144</v>
+      </c>
+      <c r="D79" t="s">
         <v>145</v>
-      </c>
-      <c r="D79" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -4115,13 +4113,13 @@
         <v>20200117</v>
       </c>
       <c r="B80" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C80" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D80" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -4129,13 +4127,13 @@
         <v>20200117</v>
       </c>
       <c r="B81" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C81" t="s">
+        <v>147</v>
+      </c>
+      <c r="D81" t="s">
         <v>148</v>
-      </c>
-      <c r="D81" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -4143,13 +4141,13 @@
         <v>20200117</v>
       </c>
       <c r="B82" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C82" t="s">
+        <v>149</v>
+      </c>
+      <c r="D82" t="s">
         <v>150</v>
-      </c>
-      <c r="D82" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -4157,13 +4155,13 @@
         <v>20200117</v>
       </c>
       <c r="B83" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C83" t="s">
+        <v>151</v>
+      </c>
+      <c r="D83" t="s">
         <v>152</v>
-      </c>
-      <c r="D83" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -4171,13 +4169,13 @@
         <v>20200117</v>
       </c>
       <c r="B84" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D84" t="s">
         <v>154</v>
-      </c>
-      <c r="D84" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -4185,13 +4183,13 @@
         <v>20200118</v>
       </c>
       <c r="B85" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C85" t="s">
+        <v>155</v>
+      </c>
+      <c r="D85" t="s">
         <v>156</v>
-      </c>
-      <c r="D85" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -4199,13 +4197,13 @@
         <v>20200118</v>
       </c>
       <c r="B86" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C86" t="s">
+        <v>157</v>
+      </c>
+      <c r="D86" t="s">
         <v>158</v>
-      </c>
-      <c r="D86" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -4213,13 +4211,13 @@
         <v>20200119</v>
       </c>
       <c r="B87" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C87" t="s">
+        <v>159</v>
+      </c>
+      <c r="D87" t="s">
         <v>160</v>
-      </c>
-      <c r="D87" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -4227,13 +4225,13 @@
         <v>20200119</v>
       </c>
       <c r="B88" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C88" t="s">
+        <v>161</v>
+      </c>
+      <c r="D88" t="s">
         <v>162</v>
-      </c>
-      <c r="D88" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -4241,10 +4239,10 @@
         <v>20200119</v>
       </c>
       <c r="C89" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D89" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -4252,13 +4250,13 @@
         <v>20200119</v>
       </c>
       <c r="B90" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C90" t="s">
+        <v>164</v>
+      </c>
+      <c r="D90" t="s">
         <v>165</v>
-      </c>
-      <c r="D90" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -4266,13 +4264,13 @@
         <v>20200119</v>
       </c>
       <c r="B91" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C91" t="s">
+        <v>166</v>
+      </c>
+      <c r="D91" t="s">
         <v>167</v>
-      </c>
-      <c r="D91" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -4280,13 +4278,13 @@
         <v>20200120</v>
       </c>
       <c r="B92" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C92" t="s">
+        <v>168</v>
+      </c>
+      <c r="D92" t="s">
         <v>169</v>
-      </c>
-      <c r="D92" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -4294,13 +4292,13 @@
         <v>20200120</v>
       </c>
       <c r="B93" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C93" t="s">
+        <v>170</v>
+      </c>
+      <c r="D93" t="s">
         <v>171</v>
-      </c>
-      <c r="D93" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -4308,13 +4306,13 @@
         <v>20200120</v>
       </c>
       <c r="B94" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C94" t="s">
+        <v>172</v>
+      </c>
+      <c r="D94" t="s">
         <v>173</v>
-      </c>
-      <c r="D94" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -4322,13 +4320,13 @@
         <v>20200120</v>
       </c>
       <c r="B95" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -4336,10 +4334,10 @@
         <v>20200121</v>
       </c>
       <c r="C96" t="s">
+        <v>174</v>
+      </c>
+      <c r="D96" t="s">
         <v>175</v>
-      </c>
-      <c r="D96" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -4347,13 +4345,13 @@
         <v>20200121</v>
       </c>
       <c r="B97" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C97" t="s">
+        <v>176</v>
+      </c>
+      <c r="D97" t="s">
         <v>177</v>
-      </c>
-      <c r="D97" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -4361,13 +4359,13 @@
         <v>20200121</v>
       </c>
       <c r="B98" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C98" t="s">
+        <v>178</v>
+      </c>
+      <c r="D98" t="s">
         <v>179</v>
-      </c>
-      <c r="D98" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -4375,13 +4373,13 @@
         <v>20200121</v>
       </c>
       <c r="B99" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C99" t="s">
+        <v>180</v>
+      </c>
+      <c r="D99" t="s">
         <v>181</v>
-      </c>
-      <c r="D99" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -4389,13 +4387,13 @@
         <v>20200121</v>
       </c>
       <c r="B100" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C100" t="s">
+        <v>182</v>
+      </c>
+      <c r="D100" t="s">
         <v>183</v>
-      </c>
-      <c r="D100" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -4403,10 +4401,10 @@
         <v>20200121</v>
       </c>
       <c r="C101" t="s">
+        <v>184</v>
+      </c>
+      <c r="D101" t="s">
         <v>185</v>
-      </c>
-      <c r="D101" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -4414,13 +4412,13 @@
         <v>20200121</v>
       </c>
       <c r="B102" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C102" t="s">
+        <v>186</v>
+      </c>
+      <c r="D102" t="s">
         <v>187</v>
-      </c>
-      <c r="D102" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -4428,10 +4426,10 @@
         <v>20200122</v>
       </c>
       <c r="C103" t="s">
+        <v>188</v>
+      </c>
+      <c r="D103" t="s">
         <v>189</v>
-      </c>
-      <c r="D103" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -4439,13 +4437,13 @@
         <v>20200122</v>
       </c>
       <c r="B104" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C104" t="s">
+        <v>190</v>
+      </c>
+      <c r="D104" t="s">
         <v>191</v>
-      </c>
-      <c r="D104" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -4453,13 +4451,13 @@
         <v>20200122</v>
       </c>
       <c r="B105" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C105" t="s">
+        <v>192</v>
+      </c>
+      <c r="D105" t="s">
         <v>193</v>
-      </c>
-      <c r="D105" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -4467,13 +4465,13 @@
         <v>20200122</v>
       </c>
       <c r="B106" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C106" t="s">
+        <v>194</v>
+      </c>
+      <c r="D106" t="s">
         <v>195</v>
-      </c>
-      <c r="D106" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -4481,10 +4479,10 @@
         <v>20200123</v>
       </c>
       <c r="B107" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C107" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -4492,13 +4490,13 @@
         <v>20200123</v>
       </c>
       <c r="B108" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C108" t="s">
+        <v>197</v>
+      </c>
+      <c r="D108" t="s">
         <v>198</v>
-      </c>
-      <c r="D108" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -4506,10 +4504,10 @@
         <v>20200123</v>
       </c>
       <c r="C109" t="s">
+        <v>199</v>
+      </c>
+      <c r="D109" t="s">
         <v>200</v>
-      </c>
-      <c r="D109" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -4517,13 +4515,13 @@
         <v>20200123</v>
       </c>
       <c r="B110" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C110" t="s">
+        <v>201</v>
+      </c>
+      <c r="D110" t="s">
         <v>202</v>
-      </c>
-      <c r="D110" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -4531,13 +4529,13 @@
         <v>20200123</v>
       </c>
       <c r="B111" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C111" t="s">
+        <v>203</v>
+      </c>
+      <c r="D111" t="s">
         <v>204</v>
-      </c>
-      <c r="D111" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -4545,13 +4543,13 @@
         <v>20200124</v>
       </c>
       <c r="B112" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C112" t="s">
+        <v>205</v>
+      </c>
+      <c r="D112" t="s">
         <v>206</v>
-      </c>
-      <c r="D112" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -4559,13 +4557,13 @@
         <v>20200124</v>
       </c>
       <c r="B113" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C113" t="s">
+        <v>209</v>
+      </c>
+      <c r="D113" t="s">
         <v>210</v>
-      </c>
-      <c r="D113" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -4573,13 +4571,13 @@
         <v>20200124</v>
       </c>
       <c r="B114" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C114" t="s">
+        <v>211</v>
+      </c>
+      <c r="D114" t="s">
         <v>212</v>
-      </c>
-      <c r="D114" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -4587,13 +4585,13 @@
         <v>20200124</v>
       </c>
       <c r="B115" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C115" t="s">
+        <v>213</v>
+      </c>
+      <c r="D115" t="s">
         <v>214</v>
-      </c>
-      <c r="D115" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -4601,13 +4599,13 @@
         <v>20200124</v>
       </c>
       <c r="B116" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C116" t="s">
+        <v>215</v>
+      </c>
+      <c r="D116" t="s">
         <v>216</v>
-      </c>
-      <c r="D116" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -4615,13 +4613,13 @@
         <v>20200124</v>
       </c>
       <c r="B117" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C117" t="s">
+        <v>217</v>
+      </c>
+      <c r="D117" t="s">
         <v>218</v>
-      </c>
-      <c r="D117" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -4629,13 +4627,13 @@
         <v>20200124</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C118" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -4643,35 +4641,41 @@
         <v>20200125</v>
       </c>
       <c r="B119" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C119" t="s">
+        <v>219</v>
+      </c>
+      <c r="D119" t="s">
         <v>220</v>
-      </c>
-      <c r="D119" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>20200125</v>
       </c>
+      <c r="B120" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="C120" t="s">
+        <v>221</v>
+      </c>
+      <c r="D120" t="s">
         <v>222</v>
-      </c>
-      <c r="D120" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>20200125</v>
       </c>
+      <c r="B121" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="C121" t="s">
+        <v>223</v>
+      </c>
+      <c r="D121" t="s">
         <v>224</v>
-      </c>
-      <c r="D121" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -4679,10 +4683,10 @@
         <v>20200125</v>
       </c>
       <c r="C122" t="s">
+        <v>225</v>
+      </c>
+      <c r="D122" t="s">
         <v>226</v>
-      </c>
-      <c r="D122" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -4690,13 +4694,13 @@
         <v>20200125</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C123" t="s">
+        <v>227</v>
+      </c>
+      <c r="D123" t="s">
         <v>228</v>
-      </c>
-      <c r="D123" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -4704,13 +4708,13 @@
         <v>20200125</v>
       </c>
       <c r="B124" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C124" t="s">
+        <v>229</v>
+      </c>
+      <c r="D124" t="s">
         <v>230</v>
-      </c>
-      <c r="D124" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -4718,10 +4722,10 @@
         <v>20200126</v>
       </c>
       <c r="C125" t="s">
+        <v>231</v>
+      </c>
+      <c r="D125" t="s">
         <v>232</v>
-      </c>
-      <c r="D125" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -4729,10 +4733,10 @@
         <v>20200126</v>
       </c>
       <c r="C126" t="s">
+        <v>233</v>
+      </c>
+      <c r="D126" t="s">
         <v>234</v>
-      </c>
-      <c r="D126" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -4740,13 +4744,13 @@
         <v>20200126</v>
       </c>
       <c r="B127" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C127" t="s">
+        <v>235</v>
+      </c>
+      <c r="D127" t="s">
         <v>236</v>
-      </c>
-      <c r="D127" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -4754,10 +4758,10 @@
         <v>20200127</v>
       </c>
       <c r="C128" t="s">
+        <v>237</v>
+      </c>
+      <c r="D128" t="s">
         <v>238</v>
-      </c>
-      <c r="D128" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -4765,13 +4769,13 @@
         <v>20200127</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -4779,10 +4783,10 @@
         <v>20200128</v>
       </c>
       <c r="C130" t="s">
+        <v>239</v>
+      </c>
+      <c r="D130" t="s">
         <v>240</v>
-      </c>
-      <c r="D130" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -4790,10 +4794,10 @@
         <v>20200128</v>
       </c>
       <c r="C131" t="s">
+        <v>243</v>
+      </c>
+      <c r="D131" t="s">
         <v>244</v>
-      </c>
-      <c r="D131" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -4801,13 +4805,13 @@
         <v>20200128</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C132" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -4815,10 +4819,10 @@
         <v>20200129</v>
       </c>
       <c r="C133" t="s">
+        <v>245</v>
+      </c>
+      <c r="D133" t="s">
         <v>246</v>
-      </c>
-      <c r="D133" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -4826,21 +4830,24 @@
         <v>20200130</v>
       </c>
       <c r="C134" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D134" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>20200130</v>
       </c>
+      <c r="B135" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="C135" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D135" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -4848,10 +4855,10 @@
         <v>20200131</v>
       </c>
       <c r="C136" t="s">
+        <v>251</v>
+      </c>
+      <c r="D136" t="s">
         <v>252</v>
-      </c>
-      <c r="D136" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -4859,13 +4866,13 @@
         <v>20200131</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C137" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D137" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -4873,10 +4880,10 @@
         <v>20200201</v>
       </c>
       <c r="C138" t="s">
+        <v>253</v>
+      </c>
+      <c r="D138" t="s">
         <v>254</v>
-      </c>
-      <c r="D138" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -4884,13 +4891,13 @@
         <v>20200201</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C139" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D139" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -4898,10 +4905,10 @@
         <v>20200202</v>
       </c>
       <c r="C140" t="s">
+        <v>259</v>
+      </c>
+      <c r="D140" t="s">
         <v>260</v>
-      </c>
-      <c r="D140" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -4909,13 +4916,13 @@
         <v>20200202</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C141" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -4923,24 +4930,27 @@
         <v>20200203</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C142" t="s">
+        <v>261</v>
+      </c>
+      <c r="D142" t="s">
         <v>262</v>
-      </c>
-      <c r="D142" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>20200204</v>
       </c>
+      <c r="B143" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="C143" t="s">
+        <v>263</v>
+      </c>
+      <c r="D143" t="s">
         <v>264</v>
-      </c>
-      <c r="D143" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -4948,13 +4958,13 @@
         <v>20200205</v>
       </c>
       <c r="B144" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C144" t="s">
+        <v>265</v>
+      </c>
+      <c r="D144" t="s">
         <v>266</v>
-      </c>
-      <c r="D144" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -4962,10 +4972,10 @@
         <v>20200205</v>
       </c>
       <c r="C145" t="s">
+        <v>269</v>
+      </c>
+      <c r="D145" t="s">
         <v>270</v>
-      </c>
-      <c r="D145" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -4973,13 +4983,13 @@
         <v>20200205</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C146" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -4987,13 +4997,13 @@
         <v>20200206</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C147" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -5001,13 +5011,13 @@
         <v>20200207</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C148" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -5016,10 +5026,10 @@
       </c>
       <c r="B149" s="1"/>
       <c r="C149" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -5027,13 +5037,13 @@
         <v>20200209</v>
       </c>
       <c r="B150" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -5041,13 +5051,13 @@
         <v>20200210</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C151" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -5055,13 +5065,13 @@
         <v>20200211</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C152" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D152" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -5069,13 +5079,13 @@
         <v>20200212</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C153" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D153" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -5083,13 +5093,13 @@
         <v>20200212</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -5097,13 +5107,13 @@
         <v>20200213</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C155" t="s">
+        <v>283</v>
+      </c>
+      <c r="D155" t="s">
         <v>284</v>
-      </c>
-      <c r="D155" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -5111,13 +5121,13 @@
         <v>20200213</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C156" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -5125,13 +5135,13 @@
         <v>20200214</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C157" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D157" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -5139,13 +5149,13 @@
         <v>20200215</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E158" s="1"/>
     </row>
@@ -5154,13 +5164,13 @@
         <v>20200215</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -5168,13 +5178,13 @@
         <v>20200219</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C160" t="s">
+        <v>287</v>
+      </c>
+      <c r="D160" t="s">
         <v>288</v>
-      </c>
-      <c r="D160" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -5182,13 +5192,13 @@
         <v>20200219</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C161" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -5196,108 +5206,111 @@
         <v>20200220</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>20200221</v>
       </c>
+      <c r="B163" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="C163" t="s">
+        <v>292</v>
+      </c>
+      <c r="D163" t="s">
         <v>293</v>
       </c>
-      <c r="D163" t="s">
-        <v>294</v>
-      </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164">
-        <v>20200221</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C164" t="s">
-        <v>295</v>
-      </c>
-      <c r="D164" t="s">
-        <v>296</v>
+      <c r="A164" s="1">
+        <v>20200222</v>
+      </c>
+      <c r="B164" t="s">
+        <v>301</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>20200222</v>
-      </c>
-      <c r="B165" t="s">
-        <v>304</v>
+        <v>20200224</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>367</v>
+        <v>294</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>368</v>
+        <v>295</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <v>20200224</v>
+        <v>20200225</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C166" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D166" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>20200225</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>313</v>
+        <v>379</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>299</v>
+        <v>377</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>300</v>
+        <v>378</v>
       </c>
     </row>
     <row r="168" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="1">
-        <v>20200225</v>
+      <c r="A168">
+        <v>20200226</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>523</v>
+      </c>
+      <c r="C168" t="s">
+        <v>357</v>
+      </c>
+      <c r="D168" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>20200226</v>
       </c>
-      <c r="B169" s="1" t="s">
-        <v>528</v>
+      <c r="B169" t="s">
+        <v>310</v>
       </c>
       <c r="C169" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D169" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -5305,27 +5318,27 @@
         <v>20200226</v>
       </c>
       <c r="B170" t="s">
-        <v>313</v>
+        <v>363</v>
       </c>
       <c r="C170" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D170" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>20200226</v>
+        <v>20200227</v>
       </c>
       <c r="B171" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="C171" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D171" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -5333,13 +5346,13 @@
         <v>20200227</v>
       </c>
       <c r="B172" t="s">
-        <v>389</v>
+        <v>310</v>
       </c>
       <c r="C172" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D172" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -5347,41 +5360,41 @@
         <v>20200227</v>
       </c>
       <c r="B173" t="s">
-        <v>313</v>
+        <v>388</v>
       </c>
       <c r="C173" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D173" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>20200227</v>
       </c>
-      <c r="B174" t="s">
-        <v>391</v>
+      <c r="B174" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="C174" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D174" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>20200227</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>392</v>
+        <v>20200228</v>
+      </c>
+      <c r="B175" t="s">
+        <v>310</v>
       </c>
       <c r="C175" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="D175" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -5389,13 +5402,13 @@
         <v>20200228</v>
       </c>
       <c r="B176" t="s">
-        <v>313</v>
+        <v>404</v>
       </c>
       <c r="C176" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="D176" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -5403,13 +5416,13 @@
         <v>20200228</v>
       </c>
       <c r="B177" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C177" t="s">
+        <v>399</v>
+      </c>
+      <c r="D177" t="s">
         <v>400</v>
-      </c>
-      <c r="D177" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -5417,13 +5430,13 @@
         <v>20200228</v>
       </c>
       <c r="B178" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C178" t="s">
+        <v>401</v>
+      </c>
+      <c r="D178" t="s">
         <v>402</v>
-      </c>
-      <c r="D178" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -5431,27 +5444,27 @@
         <v>20200228</v>
       </c>
       <c r="B179" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C179" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="D179" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>20200228</v>
+        <v>20200229</v>
       </c>
       <c r="B180" t="s">
-        <v>409</v>
+        <v>310</v>
       </c>
       <c r="C180" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="D180" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -5459,38 +5472,41 @@
         <v>20200229</v>
       </c>
       <c r="B181" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="C181" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="D181" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>20200229</v>
+        <v>20200301</v>
       </c>
       <c r="B182" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="C182" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D182" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>20200301</v>
       </c>
+      <c r="B183" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="C183" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D183" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -5498,52 +5514,52 @@
         <v>20200301</v>
       </c>
       <c r="B184" t="s">
-        <v>313</v>
+        <v>420</v>
       </c>
       <c r="C184" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="D184" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>20200301</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>351</v>
+        <v>20200302</v>
+      </c>
+      <c r="B185" t="s">
+        <v>310</v>
       </c>
       <c r="C185" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D185" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>20200301</v>
+        <v>20200303</v>
       </c>
       <c r="B186" t="s">
+        <v>476</v>
+      </c>
+      <c r="C186" t="s">
+        <v>424</v>
+      </c>
+      <c r="D186" t="s">
         <v>425</v>
-      </c>
-      <c r="C186" t="s">
-        <v>422</v>
-      </c>
-      <c r="D186" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>20200302</v>
+        <v>20200303</v>
       </c>
       <c r="B187" t="s">
-        <v>313</v>
+        <v>522</v>
       </c>
       <c r="C187" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D187" t="s">
         <v>427</v>
@@ -5553,14 +5569,14 @@
       <c r="A188">
         <v>20200303</v>
       </c>
-      <c r="B188" t="s">
-        <v>481</v>
+      <c r="B188" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="C188" t="s">
+        <v>428</v>
+      </c>
+      <c r="D188" t="s">
         <v>429</v>
-      </c>
-      <c r="D188" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -5568,41 +5584,41 @@
         <v>20200303</v>
       </c>
       <c r="B189" t="s">
-        <v>527</v>
+        <v>476</v>
       </c>
       <c r="C189" t="s">
+        <v>430</v>
+      </c>
+      <c r="D189" t="s">
         <v>431</v>
-      </c>
-      <c r="D189" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>20200303</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>351</v>
+        <v>20200304</v>
+      </c>
+      <c r="B190" t="s">
+        <v>310</v>
       </c>
       <c r="C190" t="s">
-        <v>433</v>
+        <v>477</v>
       </c>
       <c r="D190" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>20200303</v>
-      </c>
-      <c r="B191" t="s">
-        <v>481</v>
+        <v>20200304</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="C191" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D191" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -5610,108 +5626,105 @@
         <v>20200304</v>
       </c>
       <c r="B192" t="s">
-        <v>313</v>
+        <v>476</v>
       </c>
       <c r="C192" t="s">
-        <v>482</v>
+        <v>435</v>
       </c>
       <c r="D192" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>20200304</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>351</v>
+        <v>20200305</v>
+      </c>
+      <c r="B193" t="s">
+        <v>521</v>
       </c>
       <c r="C193" t="s">
+        <v>437</v>
+      </c>
+      <c r="D193" t="s">
         <v>438</v>
-      </c>
-      <c r="D193" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>20200304</v>
-      </c>
-      <c r="B194" t="s">
-        <v>481</v>
+        <v>20200305</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="C194" t="s">
+        <v>439</v>
+      </c>
+      <c r="D194" t="s">
         <v>440</v>
-      </c>
-      <c r="D194" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>20200305</v>
       </c>
-      <c r="B195" t="s">
-        <v>526</v>
-      </c>
       <c r="C195" t="s">
+        <v>441</v>
+      </c>
+      <c r="D195" t="s">
         <v>442</v>
-      </c>
-      <c r="D195" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>20200305</v>
       </c>
-      <c r="B196" s="1" t="s">
-        <v>351</v>
+      <c r="B196" t="s">
+        <v>478</v>
       </c>
       <c r="C196" t="s">
+        <v>443</v>
+      </c>
+      <c r="D196" t="s">
         <v>444</v>
-      </c>
-      <c r="D196" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>20200305</v>
+        <v>20200306</v>
+      </c>
+      <c r="B197" t="s">
+        <v>479</v>
       </c>
       <c r="C197" t="s">
+        <v>445</v>
+      </c>
+      <c r="D197" t="s">
         <v>446</v>
-      </c>
-      <c r="D197" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>20200305</v>
+        <v>20200306</v>
       </c>
       <c r="B198" t="s">
-        <v>483</v>
+        <v>310</v>
       </c>
       <c r="C198" t="s">
-        <v>448</v>
+        <v>480</v>
       </c>
       <c r="D198" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>20200306</v>
       </c>
-      <c r="B199" t="s">
-        <v>484</v>
-      </c>
       <c r="C199" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D199" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -5719,66 +5732,69 @@
         <v>20200306</v>
       </c>
       <c r="B200" t="s">
-        <v>313</v>
+        <v>481</v>
       </c>
       <c r="C200" t="s">
-        <v>485</v>
+        <v>450</v>
       </c>
       <c r="D200" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>20200306</v>
+        <v>20200307</v>
+      </c>
+      <c r="B201" t="s">
+        <v>482</v>
       </c>
       <c r="C201" t="s">
+        <v>452</v>
+      </c>
+      <c r="D201" t="s">
         <v>453</v>
-      </c>
-      <c r="D201" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>20200306</v>
+        <v>20200307</v>
       </c>
       <c r="B202" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C202" t="s">
+        <v>454</v>
+      </c>
+      <c r="D202" t="s">
         <v>455</v>
-      </c>
-      <c r="D202" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>20200307</v>
+        <v>20200308</v>
       </c>
       <c r="B203" t="s">
-        <v>487</v>
+        <v>310</v>
       </c>
       <c r="C203" t="s">
-        <v>457</v>
+        <v>484</v>
       </c>
       <c r="D203" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204">
-        <v>20200307</v>
-      </c>
-      <c r="B204" t="s">
-        <v>488</v>
+        <v>20200308</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="C204" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D204" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -5786,13 +5802,13 @@
         <v>20200308</v>
       </c>
       <c r="B205" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C205" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D205" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -5800,13 +5816,13 @@
         <v>20200308</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C206" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D206" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -5814,55 +5830,55 @@
         <v>20200308</v>
       </c>
       <c r="B207" t="s">
-        <v>313</v>
+        <v>486</v>
       </c>
       <c r="C207" t="s">
-        <v>490</v>
+        <v>462</v>
       </c>
       <c r="D207" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>20200308</v>
       </c>
-      <c r="B208" s="1" t="s">
-        <v>351</v>
+      <c r="B208" t="s">
+        <v>487</v>
       </c>
       <c r="C208" t="s">
+        <v>464</v>
+      </c>
+      <c r="D208" t="s">
         <v>465</v>
-      </c>
-      <c r="D208" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>20200308</v>
+        <v>20200309</v>
       </c>
       <c r="B209" t="s">
-        <v>491</v>
+        <v>310</v>
       </c>
       <c r="C209" t="s">
-        <v>467</v>
+        <v>494</v>
       </c>
       <c r="D209" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>20200308</v>
+        <v>20200309</v>
       </c>
       <c r="B210" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C210" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D210" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -5870,41 +5886,41 @@
         <v>20200309</v>
       </c>
       <c r="B211" t="s">
-        <v>313</v>
+        <v>489</v>
       </c>
       <c r="C211" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="D211" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>20200309</v>
+        <v>20200310</v>
       </c>
       <c r="B212" t="s">
-        <v>493</v>
+        <v>310</v>
       </c>
       <c r="C212" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
       <c r="D212" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>20200309</v>
-      </c>
-      <c r="B213" t="s">
-        <v>494</v>
+        <v>20200310</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="C213" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D213" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -5912,111 +5928,111 @@
         <v>20200310</v>
       </c>
       <c r="B214" t="s">
-        <v>313</v>
+        <v>492</v>
       </c>
       <c r="C214" t="s">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="D214" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>20200310</v>
       </c>
-      <c r="B215" s="1" t="s">
-        <v>351</v>
+      <c r="B215" t="s">
+        <v>493</v>
       </c>
       <c r="C215" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="D215" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>20200310</v>
-      </c>
-      <c r="B216" t="s">
-        <v>497</v>
+        <v>20200311</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="C216" t="s">
-        <v>479</v>
+        <v>509</v>
       </c>
       <c r="D216" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>20200310</v>
+        <v>20200311</v>
       </c>
       <c r="B217" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
       <c r="C217" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="D217" t="s">
-        <v>480</v>
+        <v>512</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>20200311</v>
       </c>
-      <c r="B218" s="1" t="s">
-        <v>351</v>
+      <c r="B218" t="s">
+        <v>346</v>
       </c>
       <c r="C218" t="s">
+        <v>513</v>
+      </c>
+      <c r="D218" t="s">
         <v>514</v>
-      </c>
-      <c r="D218" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>20200311</v>
+        <v>20200312</v>
       </c>
       <c r="B219" t="s">
-        <v>520</v>
+        <v>310</v>
       </c>
       <c r="C219" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D219" t="s">
-        <v>517</v>
+        <v>496</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>20200311</v>
+        <v>20200312</v>
       </c>
       <c r="B220" t="s">
-        <v>349</v>
+        <v>519</v>
       </c>
       <c r="C220" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D220" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>20200312</v>
       </c>
-      <c r="B221" t="s">
-        <v>313</v>
+      <c r="B221" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="C221" t="s">
-        <v>523</v>
+        <v>498</v>
       </c>
       <c r="D221" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -6024,27 +6040,27 @@
         <v>20200312</v>
       </c>
       <c r="B222" t="s">
-        <v>524</v>
+        <v>310</v>
       </c>
       <c r="C222" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D222" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>20200312</v>
       </c>
-      <c r="B223" s="1" t="s">
-        <v>351</v>
+      <c r="B223" t="s">
+        <v>308</v>
       </c>
       <c r="C223" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D223" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -6052,13 +6068,13 @@
         <v>20200312</v>
       </c>
       <c r="B224" t="s">
-        <v>313</v>
+        <v>520</v>
       </c>
       <c r="C224" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="D224" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -6066,13 +6082,13 @@
         <v>20200312</v>
       </c>
       <c r="B225" t="s">
-        <v>311</v>
+        <v>525</v>
       </c>
       <c r="C225" t="s">
+        <v>505</v>
+      </c>
+      <c r="D225" t="s">
         <v>506</v>
-      </c>
-      <c r="D225" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -6080,66 +6096,66 @@
         <v>20200312</v>
       </c>
       <c r="B226" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C226" t="s">
+        <v>507</v>
+      </c>
+      <c r="D226" t="s">
         <v>508</v>
-      </c>
-      <c r="D226" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>20200312</v>
-      </c>
-      <c r="B227" t="s">
-        <v>530</v>
+        <v>20200313</v>
       </c>
       <c r="C227" t="s">
-        <v>510</v>
+        <v>535</v>
       </c>
       <c r="D227" t="s">
-        <v>511</v>
+        <v>534</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>20200312</v>
+        <v>20200313</v>
       </c>
       <c r="B228" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="C228" t="s">
-        <v>512</v>
+        <v>533</v>
       </c>
       <c r="D228" t="s">
-        <v>513</v>
+        <v>536</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>20200313</v>
       </c>
+      <c r="B229" t="s">
+        <v>538</v>
+      </c>
       <c r="C229" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="D229" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>20200313</v>
       </c>
-      <c r="B230" t="s">
-        <v>542</v>
+      <c r="B230" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="C230" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="D230" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -6147,55 +6163,55 @@
         <v>20200313</v>
       </c>
       <c r="B231" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C231" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="D231" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232">
-        <v>20200313</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>351</v>
+        <v>20200314</v>
+      </c>
+      <c r="B232" t="s">
+        <v>310</v>
       </c>
       <c r="C232" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="D232" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233">
-        <v>20200313</v>
-      </c>
-      <c r="B233" t="s">
-        <v>544</v>
+        <v>20200314</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="C233" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="D233" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>20200314</v>
       </c>
-      <c r="B234" t="s">
-        <v>313</v>
+      <c r="B234" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="C234" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="D234" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
@@ -6203,52 +6219,52 @@
         <v>20200314</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C235" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="D235" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>20200314</v>
       </c>
-      <c r="B236" s="1" t="s">
-        <v>351</v>
-      </c>
       <c r="C236" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="D236" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237">
-        <v>20200314</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>351</v>
+        <v>20200315</v>
+      </c>
+      <c r="B237" t="s">
+        <v>310</v>
       </c>
       <c r="C237" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="D237" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238">
-        <v>20200314</v>
+        <v>20200315</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="C238" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="D238" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -6256,41 +6272,41 @@
         <v>20200315</v>
       </c>
       <c r="B239" t="s">
-        <v>313</v>
+        <v>539</v>
       </c>
       <c r="C239" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="D239" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240">
-        <v>20200315</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>351</v>
+        <v>20200316</v>
+      </c>
+      <c r="B240" t="s">
+        <v>564</v>
       </c>
       <c r="C240" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D240" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241">
-        <v>20200315</v>
-      </c>
-      <c r="B241" t="s">
-        <v>544</v>
+        <v>20200316</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="C241" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="D241" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
@@ -6298,108 +6314,108 @@
         <v>20200316</v>
       </c>
       <c r="B242" t="s">
-        <v>569</v>
+        <v>539</v>
       </c>
       <c r="C242" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="D242" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>20200316</v>
       </c>
-      <c r="B243" s="1" t="s">
-        <v>351</v>
-      </c>
       <c r="C243" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="D243" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244">
-        <v>20200316</v>
-      </c>
-      <c r="B244" t="s">
-        <v>544</v>
+        <v>20200317</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="C244" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="D244" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245">
-        <v>20200316</v>
+        <v>20200317</v>
+      </c>
+      <c r="B245" t="s">
+        <v>346</v>
       </c>
       <c r="C245" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="D245" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A246">
+      <c r="A246" s="1">
         <v>20200317</v>
       </c>
-      <c r="B246" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C246" t="s">
-        <v>570</v>
-      </c>
-      <c r="D246" t="s">
-        <v>571</v>
+      <c r="B246" t="s">
+        <v>310</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247">
-        <v>20200317</v>
+        <v>20200318</v>
       </c>
       <c r="B247" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="C247" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="D247" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A248" s="1">
-        <v>20200317</v>
-      </c>
-      <c r="B248" t="s">
-        <v>313</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>584</v>
+      <c r="A248">
+        <v>20200318</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C248" t="s">
+        <v>576</v>
+      </c>
+      <c r="D248" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>20200318</v>
       </c>
-      <c r="B249" t="s">
-        <v>313</v>
+      <c r="B249" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="C249" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="D249" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
@@ -6407,55 +6423,55 @@
         <v>20200318</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C250" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D250" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>20200318</v>
       </c>
-      <c r="B251" s="1" t="s">
-        <v>351</v>
+      <c r="B251" t="s">
+        <v>346</v>
       </c>
       <c r="C251" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="D251" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252">
-        <v>20200318</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>351</v>
+        <v>20200319</v>
+      </c>
+      <c r="B252" t="s">
+        <v>310</v>
       </c>
       <c r="C252" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="D252" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253">
-        <v>20200318</v>
-      </c>
-      <c r="B253" t="s">
-        <v>349</v>
+        <v>20200319</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="C253" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D253" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
@@ -6463,41 +6479,41 @@
         <v>20200319</v>
       </c>
       <c r="B254" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="C254" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="D254" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255">
-        <v>20200319</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>351</v>
+        <v>20200320</v>
+      </c>
+      <c r="B255" t="s">
+        <v>310</v>
       </c>
       <c r="C255" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="D255" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256">
-        <v>20200319</v>
-      </c>
-      <c r="B256" t="s">
-        <v>349</v>
+        <v>20200320</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>348</v>
       </c>
       <c r="C256" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="D256" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
@@ -6505,55 +6521,55 @@
         <v>20200320</v>
       </c>
       <c r="B257" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="C257" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="D257" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258">
-        <v>20200320</v>
+        <v>20200321</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C258" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="D258" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259">
-        <v>20200320</v>
+        <v>20200321</v>
       </c>
       <c r="B259" t="s">
-        <v>349</v>
+        <v>600</v>
       </c>
       <c r="C259" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="D259" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>20200321</v>
       </c>
-      <c r="B260" s="1" t="s">
-        <v>351</v>
+      <c r="B260" t="s">
+        <v>310</v>
       </c>
       <c r="C260" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="D260" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
@@ -6561,45 +6577,17 @@
         <v>20200321</v>
       </c>
       <c r="B261" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C261" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="D261" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A262">
-        <v>20200321</v>
-      </c>
-      <c r="B262" t="s">
-        <v>313</v>
-      </c>
-      <c r="C262" t="s">
-        <v>606</v>
-      </c>
-      <c r="D262" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A263">
-        <v>20200321</v>
-      </c>
-      <c r="B263" t="s">
-        <v>607</v>
-      </c>
-      <c r="C263" t="s">
-        <v>593</v>
-      </c>
-      <c r="D263" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D263">
+  <autoFilter ref="A1:D261">
     <sortState ref="A2:D241">
       <sortCondition ref="A47"/>
     </sortState>

--- a/cctvNews_2020.xlsx
+++ b/cctvNews_2020.xlsx
@@ -15,14 +15,14 @@
     <sheet name="cctvNews_update" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cctvNews_update!$A$1:$D$261</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cctvNews_update!$A$1:$D$291</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="677">
   <si>
     <t>新年戏曲晚会在京举行</t>
   </si>
@@ -2074,6 +2074,243 @@
   </si>
   <si>
     <t>云南腾冲积极推进志愿服务，近年来组织了1200多支形式多样的志愿者服务队伍，让志愿服务成为乡村治理的强力“催化剂”。在腾冲市明光镇自治小学，由学校老师和村里的文化传承人等组成的文艺志愿者服务队正在为孩子们编排原生态的傈僳族歌舞。下个月，他们将首次走出大山，前往澳门参加比赛。在腾冲，这样的志愿者服务队伍有很多。当地把志愿服务与基层党组织的战斗堡垒作用、村民自我治理功能相结合，动员村民组成文艺表演、邻里互助、净化村容村貌等志愿者服务队伍，用火塘会、田埂会等方式丰富文化生活，调解邻里纠纷、化解家庭矛盾，促进乡村治理。2018年以来，腾冲市已经建立起1200多支由县、乡、村、组四级志愿者组成的服务队伍，打通了服务群众的最后一公里，让群众在基层自治中实现自我服务、自我治理。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【新闻特写】生死相依 难说再见</t>
+  </si>
+  <si>
+    <t>山东抓住“黄河滩”“沂蒙山”两大重点区域，兜住“老病残”等重点人群生活底线，探索建立稳定脱贫长效机制，确保如期高质量完成脱贫攻坚任务。山东菏泽地处黄河滩区，是山东脱贫攻坚的主战场。这几天，菏泽成武县的贫困老人邵明伦搬进当地政府改建的周转房。邵明伦能够搬进新房，得益于当地推行的扶贫周转房。现在，当地大部分贫困户通过政府的危房改造补贴资金改善了居住条件，但仍然有一些像邵明伦这样的贫困户，还是承担不了政府补贴之外的那部分改造资金。因此，当地整合扶贫、民政等资金，新建、改建一批集中安置周转房。今年，山东将重点抓好菏泽、临沂两市和20个脱贫任务较重县的脱贫攻坚稳固提升工作。在临沂的脱贫重点县沂南，当地正通过推进扶贫项目集中经营管理，让不少贫困户在家门口实现了就业。这家农场是当地整合近200万元扶贫资金政企共建的，农场不仅优先吸纳贫困户就业，每年还按扶贫投资额的8%缴纳扶贫收益，用于贫困户分红。截至目前，山东已累计投入财政专项扶贫资金198.4亿元，实施产业扶贫项目1.1万个，惠及贫困户43万户。</t>
+  </si>
+  <si>
+    <t>山东：抓重点兜底线 高质量打赢脱贫攻坚战</t>
+  </si>
+  <si>
+    <t>本台今天（3月22日）播发央视快评《全面强化稳就业举措》。</t>
+  </si>
+  <si>
+    <t>【央视快评】全面强化稳就业举措</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>扶贫脱贫</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>国务院办公厅印发《关于在防疫条件下积极有序推进春季造林绿化工作的通知》</t>
+  </si>
+  <si>
+    <t>国务院办公厅日前印发《关于在防疫条件下积极有序推进春季造林绿化工作的通知》，要求各地各有关部门深入贯彻落实习近平总书记就在防疫条件下做好今年春季造林工作的重要指示和李克强总理等中央领导同志的批示要求，积极有序推进春季造林绿化工作，确保全面完成全年目标任务。《通知》要求，一是要按照疫情科学防控、分类指导要求，因地制宜、分区施策，积极有序开展春季造林绿化工作。二是要统筹谋划造林季节安排，落实春季、雨季、秋冬季造林任务。三是要灵活开展义务植树和部门绿化，引导社会公众安全、有序履行植树义务，落实国土绿化分工负责制，持续开展森林城市、园林城市和森林乡村建设。四是要全面提高造林绿化质量。五是要着力保护好造林绿化成果，加强新造林管护，提高成活成林率。</t>
+  </si>
+  <si>
+    <t>本台今天（3月23日）播发央视快评《携手打造人类卫生健康共同体》。</t>
+  </si>
+  <si>
+    <t>国家科技强力助农 春耕生产顺利推进</t>
+  </si>
+  <si>
+    <t>暖冬天气造成了今年小麦病虫草害偏重发生。国家加大最新科技投入，力促夏粮稳产丰收。现在已进入夏粮产量形成的关键时期，小麦专家王永华正忙着指导农民防治病虫害。与往年不同，今年他面对的不是广大农民，而是一部智能手机。今年2月初，农业农村部在高素质农民网上学习平台“云上智农”启动春耕专栏，由院士、专家牵头的50个国家现代农业产业技术体系，在线发布最新成果，并开展农技培训。王永华就是来自小麦产业技术体系的岗位专家。远在200多公里外的老庄稼把式杜卫远种的8万亩优质强筋麦全都是新品种，发现有了条锈病，老杜不敢贸然行动。听说顶级专家讲课，老杜也试着在手机上学习。看了王永华教的法子，老杜试着下药，效果还真不错。包括小麦、水稻、玉米三大主粮在内，中央累计投入170多亿元，支持50个国家现代农业产业技术体系建设，全产业链打造国家农业科技“天团”。今年春耕，已发布2000多个实用课件和视频。最新监测显示，今年，小麦条锈病发生面积已超过1000多万亩，赤霉病也可能流行，对稳产丰收造成威胁。安徽亳州农民刘忠山的700亩小麦也出现了病虫害。关键时刻，国家航空植保科技创新联盟与当地政府签了订单，统一开展病虫害统防统治。为有效推进农业创新驱动，国家打造农业科技创新联盟，集聚科研院所、企业等全国农业科技优势资源和力量。航空植保科技创新联盟就是其中之一。今年春耕，他们的作业面积占无人机植保的九成多。在国家农业科技“天团”下沉的同时，农业农村部还建设100个农业科技示范基地，培训100万高素质农民，力促粮食稳产丰收。最新农情调度显示，目前，小麦已陆续抽穗扬花，春播粮食完成意向面积的6%，春耕进展顺利。</t>
+  </si>
+  <si>
+    <t>汪洋在国务院扶贫办调研时强调 抓落实必须克服形式主义和官僚主义</t>
+  </si>
+  <si>
+    <t>中共中央政治局常委、全国政协主席汪洋24日到国务院扶贫办调研并座谈。他强调，贯彻落实好习近平总书记在决战决胜脱贫攻坚座谈会上的重要讲话精神，必须克服形式主义和官僚主义，严肃处理弄虚作假行为，确保党中央各项决策部署不折不扣落到实处，坚决夺取脱贫攻坚战全面胜利。汪洋察看了新冠肺炎疫情对脱贫攻坚影响应对分析机制调度督导情况，听取了扶贫办贯彻落实习近平总书记3月6日重要讲话精神情况汇报，并与甘肃省委、贵州省从江县委领导同志进行了视频连线。他指出，决战决胜脱贫攻坚座谈会是疫情发生后党中央召开的第一个专题部署工作的会议，充分体现了以习近平同志为核心的党中央对打赢脱贫攻坚战的高度重视。习近平总书记在座谈会上的重要讲话是我们做好工作的根本遵循，要深入领会精神实质，切实提高政治站位，增强决战决胜脱贫攻坚的责任感和紧迫感。要高度重视疫情的影响，重点做好组织贫困劳动力外出务工、开展消费扶贫行动、加快扶贫项目开工等工作，努力把疫情造成的损失补回来。汪洋强调，脱贫攻坚越到紧要关头，越要发扬求真务实的优良作风，坚决克服形式主义和官僚主义。挂牌督战是为了“战”，如果层层“督”而不是层层“战”，就会成为新的形式主义。如果在“督”的工作上再层层加码，势必成为影响“战”的突出问题。上一级要注意帮助下一级解决问题，而不是仅仅提出问题。对于在防控疫情复工复产中的弄虚作假行为，必须坚决纠正和严肃处理，确保脱贫攻坚成效经得起实践检验。中共中央政治局委员、国务院副总理胡春华陪同调研。</t>
+  </si>
+  <si>
+    <t>本台今天（3月24日）播发央视快评《精准施策，打通“堵点”补上“断点”》。</t>
+  </si>
+  <si>
+    <t>湖南：向短板发力 筑牢扶贫基础</t>
+  </si>
+  <si>
+    <t>眼下，湖南正在向产业扶贫中的销售难、易地搬迁后的后期扶持等短板发力，进一步巩固筑牢扶贫基础。这两天，新化县炉观镇的红薯种植户忙得不可开交，他们要趁着好天气把镇里的1200亩红薯在清明前播种完。贫困户卿国贵去年就靠着红薯产业摘掉了贫困户的帽子。地处武陵山集中连片特困区的新化县这两年按照各乡镇地形地貌发展特色种养殖，走出了一条“产业+就业”的扶贫路子。当地政府通过建立企业用工需求和劳动力用工需求两本台账，为贫困户牵线搭桥。盯住短板、着力攻坚。随着贫困户有活干、有钱挣之后，由于没有对接好市场，大量农产品滞销又成了新问题，也成为新化整县脱贫后首个要集中力量解决的短板。当地政府加大了电商扶贫，解决老百姓产品销售的后顾之忧。湖南新宁县则将2793户易地搬迁户的后期扶持作为重点攻克的短板。在建设易地搬迁安置点之前，当地政府就预先引进了电子元件厂，在安置小区楼下建了扶贫车间。不仅楼下有扶贫车间，当地还抓住新宁县丰富的竹木资源，做活竹木深加工，做大旅游产业。目前，湖南通过建设424家就业扶贫基地、2038个扶贫车间、开设生态护林员等公益性岗位吸纳35000多贫困人口就地就业，确保贫困退出的稳定性和可持续性。</t>
+  </si>
+  <si>
+    <t>造林绿化</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【央视快评】携手打造人类卫生健康共同体</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业农村</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【央视快评】精准施策，打通“堵点”补上“断点”</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天（3月28日）是西藏百万农奴解放纪念日，西藏民主改革61年来，特别是党的十八大以来，雪域高原实现了经济社会的跨越式发展。当前，西藏正加快建立长效防返贫机制，扎实推进乡村振兴战略，与全国人民一道向着全面建成小康社会的目标冲刺。2019年12月，西藏最后19个贫困县区实现脱贫摘帽。来自那曲市色尼区凯玛村的央嘎，这两天正忙着赶制一批奶制品，曾经的她是建档立卡贫困户，现在是一位奶制品加工的好手。凯玛村此前有建档立卡贫困户70户308人，虽然依靠产业和政策兜底，已经脱了贫，但其中有些群众缺乏技能，有一定返贫风险。当地就把产业技术培训作为防止返贫的重要抓手。央嘎在接受了食品加工方面的培训后，当地还帮助她在畜牧产业基地找了份工作，现在每月可以拿到2600元。目前，那曲共建立了39家畜牧业养殖基地，可帮助3万多户已脱贫群众稳定增收。巩固脱贫攻坚成果的同时，西藏还以特色产业为引领，推动乡村振兴。在林下资源丰富的林芝，当地结合市场需求，把人员和资金重点向茶叶、灵芝、藏香猪养殖等产业倾斜。就在这个月，2600多名农牧科技人员走进田间地头，指导农户科学种养殖。作为国家重要的生态安全屏障之一，“十三五”期间，西藏累计落实各类生态补偿资金296亿多元。生态环境不断向好，也让越来越多的老百姓享受到了绿色发展的红利。如今的西藏，各方面发展不断迈上新台阶。2019年，地区生产总值突破1600亿元，增速位居全国前列；公路通达所有县区。</t>
+  </si>
+  <si>
+    <t>西藏：奋力描绘新时代发展新画卷</t>
+  </si>
+  <si>
+    <t>今天（3月28日），武汉市6条轨道交通线路正式恢复运营，铁路客运站的到达业务、中欧班列正式恢复，城市内外交通逐步“重启”。今天，武汉轨道交通1号线、2号线、3号线、4号线、6号线、7号线恢复运行，和以往不同，进站乘客需扫码实名乘车。为了控制乘客密度，地铁站安检、候车区域、车厢座位都贴有黄色标签，提示乘客乘车保持距离。今天零时起，武汉正式恢复铁路客运站到达业务。零点十四分，武昌火车站迎来了当日首趟抵达列车。到达的旅客以滞留外地返汉人员和来汉复工返岗人员为主，抵达旅客需要配合测体温，若14天内有境外旅行史需登记。武汉：中欧班列恢复常态化运行今天上午10点05分，中欧班列（武汉）X8015次开行，班列将从阿拉山口出境，预计15天后抵达德国杜伊斯堡。这趟班列运载着50个集装箱，装载的近九成货物为武汉本地企业生产。为支持当地企业复工复产，铁路部门开辟“绿色通道”，并减免疫情期间国际货物相关费用，海关部门特事特办、即报即办，大大压缩了货物周转时间。民航局发布消息，自明天零时起，恢复湖北省各机场货运航班，同时恢复湖北省除武汉天河机场外其他机场的国内客运航班。自4月8日零时起，恢复武汉天河机场国内客运航班。</t>
+  </si>
+  <si>
+    <t>武汉：城市内外交通逐步“重启”</t>
+  </si>
+  <si>
+    <t>本台播发央视快评，题目是《坚决打好疫情防控全球阻击战》。</t>
+  </si>
+  <si>
+    <t>习近平主席在北京出席二十国集团领导人应对新冠肺炎特别峰会并发表题为《携手抗疫 共克时艰》的重要讲话，秉持人类命运共同体理念，结合中国抗击疫情实践经验，就加强疫情防控国际合作、稳定世界经济提出了四点倡议，为全球抗疫传递了强大信心，引发国内外热烈反响。习近平主席在讲话中指出，疫情正在全球蔓延，国际社会最需要的是坚定信心、齐心协力、团结应对，携手赢得这场人类同重大传染性疾病的斗争。习主席倡议，坚决打好新冠肺炎疫情防控全球阻击战，有效开展国际联防联控。与会多国领导人对此充分认可。法国总统马克龙发言指出，正如习近平主席所说，国际社会需要团结应对、加强协调。在现在这种情况下，我们需要全球的团结。习近平主席在讲话中强调，中国愿同各国分享防控有益做法，开展药物和疫苗联合研发，并向出现疫情扩散的国家提供力所能及的援助。此举获得国际社会广泛好评。国际权威医学杂志《柳叶刀》27日在题为《学习经验》的社论中，呼吁国际社会秉持团结合作的精神应对疫情，并强调了学习中国经验的重要性。眼下，中国疫情防控形势持续向好，生产生活秩序加快恢复。但全球疫情正呈加速扩散蔓延态势，世界经济贸易增长受到严重冲击。习近平主席倡议，积极支持国际组织发挥作用，加强国际宏观经济政策协调。他还呼吁二十国集团成员采取共同措施，减免关税、取消壁垒、畅通贸易。这一务实倡议极具意义。</t>
+  </si>
+  <si>
+    <t>促抗疫国际合作 增稳定经济信心——国内外积极评价习近平主席在二十国集团领导人特别峰会上的重要讲话</t>
+  </si>
+  <si>
+    <t>本台今天（3月27日）播发央视快评《做细做实防控工作 有序推动复工复产》。快评指出，外防输入、内防反弹是当前疫情防控的关键。推动复工复产，要科学有序、精准施策。“两手”都要硬，“两战”都要赢。各地区各部门要做到抗击疫情和经济发展两手抓、两不误，奋力夺取疫情防控和复工复产的“双胜利”！</t>
+  </si>
+  <si>
+    <t>多国人士认为，在新冠肺炎疫情正在全球蔓延之际，习近平主席在二十国集团领导人应对新冠肺炎特别峰会上发表的重要讲话，体现了中国推动开展抗击疫情国际合作的大国担当，对国际社会坚定信心、全面合作，凝聚起战胜疫情强大合力具有重要意义。国际人士认为，习近平主席在讲话中提出的有效开展国际联防联控、坚决打好新冠肺炎疫情防控全球阻击战等倡议，对于全球抗疫具有重大意义。联合国拉丁美洲和加勒比经济委员会执行秘书阿莉西亚·巴尔塞纳表示，疫情面前，任何国家都无法独善其身，必须要加强团结与协调。此次疫情让各国看到进一步加强国际合作的必要性。法国尼斯欧洲研究所学者乔治·佐戈普鲁斯表示，疫情已蔓延至全球190多个国家和地区。面对这场全球公共卫生危机，只有正视挑战、加强合作才是应对之策。中国在抗击疫情方面积累了很多成功经验，正与其他国家交流分享、共同抗疫，值得称赞。新加坡国立大学东亚研究所教授郑永年表示，世界各国命运与共，中国在打好国内疫情防控阻击战的同时，也为其他国家提供力所能及的帮助，世界各国看到了中国的道义与担当。将疫情政治化、意识形态化，对任何国家都没有好处。此次峰会证明，以科学的态度和方式开展合作，才能更加团结，打好疫情防控全球阻击战。国际各界人士还指出，疫情对全球生产和需求造成全面冲击，习近平主席提出加强国际宏观经济政策协调等重要倡议，有力提振了世界经济复苏士气。英国48家集团俱乐部主席斯蒂芬·佩里说，中国以自身行动诠释了构建人类命运共同体的重要性。中国不仅积极帮助其他国家抗击疫情，还表达了继续扩大改革开放、为世界经济稳定作出贡献的承诺，这种合作和开放的态度，在未来应对全球性问题上也是各国应该坚持的方向。沙特基础工业公司副董事长兼首席执行官、2020年二十国集团工商峰会主席尤素福·阿尔-拜延表示，世界各国正面临疫情带来的严峻考验，中国快速恢复经济活力为全球经济发展发出积极信号。巴西主流媒体《巴西利亚邮报》重点关注了习主席在重要讲话中关于“加强国际宏观经济政策协调”的有关内容。报道称，中国国家主席习近平承诺继续“扩大改革开放、放宽市场准入、优化营商环境，扩大进口和对外投资”，以此“为世界经济稳定作出贡献”。</t>
+  </si>
+  <si>
+    <t>国际社会积极评价习近平主席在二十国集团领导人特别峰会上的重要讲话</t>
+  </si>
+  <si>
+    <t>国家主席习近平26日晚在北京出席二十国集团领导人应对新冠肺炎特别峰会并发表题为《携手抗疫 共克时艰》的重要讲话。习近平强调，面对突如其来的新冠肺炎疫情，中国政府、中国人民不畏艰险，始终把人民生命安全和身体健康摆在第一位，按照坚定信心、同舟共济、科学防治、精准施策的总要求，坚持全民动员、联防联控、公开透明，打响了一场抗击疫情的人民战争。经过艰苦努力，付出巨大牺牲，目前中国国内疫情防控形势持续向好，生产生活秩序加快恢复，但我们仍然丝毫不能放松警惕。当前，疫情正在全球蔓延，国际社会最需要的是坚定信心、齐心协力、团结应对，携手赢得这场人类同重大传染性疾病的斗争。中方秉持人类命运共同体理念，愿向其他国家提供力所能及的援助，为世界经济稳定作出贡献。中共中央政治局常委、中央书记处书记王沪宁陪同出席。习近平首先表示，在中方最困难的时候，国际社会许多成员给予中方真诚帮助和支持，我们会始终铭记并珍视这份友谊。习近平指出，重大传染性疾病是全人类的敌人。新冠肺炎疫情正在全球蔓延，给人民生命安全和身体健康带来巨大威胁，给全球公共卫生安全带来巨大挑战。习近平就会议议题提出4点倡议。第一，坚决打好新冠肺炎疫情防控全球阻击战。尽早召开二十国集团卫生部长会议，加强信息分享，开展药物、疫苗研发、防疫合作，有效防止疫情跨境传播，携手帮助公共卫生体系薄弱的发展中国家提高应对能力。我建议发起二十国集团抗疫援助倡议，在世卫组织支持下加强信息沟通、政策协调、行动配合。中方秉持人类命运共同体理念，愿同各国分享防控有益做法，开展药物和疫苗联合研发，并向出现疫情扩散的国家提供力所能及的援助。第二，有效开展国际联防联控。中方已经建立新冠肺炎疫情防控网上知识中心，向所有国家开放。要集各国之力，共同合作加快药物、疫苗、检测等方面科研攻关。探讨建立区域公共卫生应急联络机制。第三，积极支持国际组织发挥作用。中方支持世卫组织发挥领导作用，制定科学合理防控措施。我建议，二十国集团依托世卫组织加强疫情防控信息共享，推广全面系统有效的防控指南。要发挥二十国集团沟通协调作用，适时举办全球公共卫生安全高级别会议。第四，加强国际宏观经济政策协调。各国应该联手加大宏观政策对冲力度，防止世界经济陷入衰退。要实施有力有效的财政和货币政策，维护全球金融市场稳定，维护全球产业链供应链稳定。中国将加大向国际市场供应原料药、生活必需品、防疫物资等产品。要保护弱势群体，保障人民基本生活。中国将继续实施积极的财政政策和稳健的货币政策，坚定不移扩大改革开放，放宽市场准入，持续优化营商环境，积极扩大进口，扩大对外投资，为世界经济稳定作出贡献。习近平呼吁，二十国集团成员采取共同举措，减免关税、取消壁垒、畅通贸易，发出有力信号，提振世界经济复苏士气。制定二十国集团行动计划，并就抗疫宏观政策协调及时作出必要的机制性沟通和安排。习近平最后强调，值此关键时刻，我们应该直面挑战、迅速行动。我坚信，只要我们同舟共济、守望相助，就一定能够彻底战胜疫情，迎来人类发展更加美好的明天。今年二十国集团主席国沙特国王萨勒曼主持峰会。二十国集团成员和嘉宾国领导人以及世界卫生组织、联合国、国际货币基金组织、世界银行等国际组织负责人与会。各方在发言中均认为，新冠肺炎疫情正在世界范围快速蔓延，不仅严重危害世界公共卫生安全，还对全球经济、金融、政治产生巨大负面影响。面对这一全人类的共同危机，没有任何一个国家可以独善其身，国际社会比以往任何时候都更需要团结和合作，应迅速采取协调、有力行动，有效切断疫情传播，加强药品和疫苗研发等科研合作，加大对患者救治力度，有力维护民众生命安全与身体健康。要采取有效的财政和货币政策，保障全球供应链安全、稳定，维护全球金融稳定，促进世界经济尽快复苏，全力降低疫情对经济社会造成的损害。各方支持世卫组织发挥领导作用，承诺帮助发展中国家和弱势群体提高应对能力。峰会发表了《二十国集团领导人应对新冠肺炎特别峰会声明》。二十国集团领导人应对新冠肺炎特别峰会由沙特主办，以视频方式举行，旨在推动全球合作应对疫情、稳定世界经济。丁薛祥、刘鹤、杨洁篪、王毅、肖捷、何立峰等参加。</t>
+  </si>
+  <si>
+    <t>习近平出席二十国集团领导人应对新冠肺炎特别峰会并发表重要讲话 倡议有效开展国际联防联控 坚决打好新冠肺炎疫情防控全球阻击战 呼吁加强宏观经济政策协调 防止世界经济陷入衰退</t>
+  </si>
+  <si>
+    <t>自然资源部今天（3月26日）宣布，我国海域可燃冰第二轮试采取得圆满成功。本次试采是全球首次利用水平井钻采技术试采海域可燃冰。试采连续产气30天，累计产气量86.14万立方米，日均产气量2.87万立方米，创造了“产气总量最大、日均产气量最高”两项世界纪录。试采攻克了深海浅软地层水平井钻采世界性难题，突破了规模化产气的核心理论技术和关键装备，创建了“防控为主，监测并重”的环境安全保障体系，全过程绿色环保。</t>
+  </si>
+  <si>
+    <t>我国海域可燃冰试采取得重大突破</t>
+  </si>
+  <si>
+    <t>本台今天（3月26日）播发央视快评《持续巩固来之不易的防控成果》。快评指出，要坚决把思想和行动统一到党中央决策部署上来，各地各部门要慎终如始，因时因势不断调整工作着力点和应对举措，不麻痹、不厌战、不松劲，把疫情防控各项工作抓实抓细抓到位，始终做到守土有责，守土有方，为人民群众生命安全筑起更加坚固的防线，奋力夺取疫情防控阻击战的最终胜利。</t>
+  </si>
+  <si>
+    <t>全国人大常委会召开强化公共卫生法治保障立法修法工作座谈会，中共中央政治局常委、全国人大常委会委员长栗战书出席并讲话。他强调，要坚持以习近平新时代中国特色社会主义思想为指导，加强和完善公共卫生领域立法修法工作，把习近平总书记关于强化公共卫生法治保障的重要指示精神和党中央的决策部署落到实处。栗战书指出，习近平总书记和党中央始终把人民群众生命安全和身体健康放在第一位，多次强调依法防控、依法治理的极端重要性，明确要求强化公共卫生法治保障和法律体系建设，就疫情防控、国家公共卫生应急管理、国家生物安全等提出立法任务。全国人大及其常委会要切实履行法定职责，从保障人民群众生命安全和身体健康、防范化解重大风险、推进国家治理体系和治理能力现代化的高度来理解和推进立法修法工作。栗战书强调，这次疫情暴露了现有法律存在一些短板和不足，法律本身也需要根据时代和实践的发展与时俱进。要充分认识加强和完善公共卫生领域立法修法工作的重要性、紧迫性，构建起防范化解重大公共卫生风险的坚实法治屏障。栗战书强调，要坚持党中央对立法工作的集中统一领导，坚持以人民为中心的立法宗旨，坚持从国情和实际出发，体现中国特色，全面提高公共卫生依法治理能力。坚持问题导向、系统规划、统筹布局，在确保立法质量的基础上加快工作进度。建立立法修法协调机制，成立工作专班，做到立一件成一件、改一条成一条，确保立的法、修的法科学管用。王晨主持座谈会。</t>
+  </si>
+  <si>
+    <t>栗战书出席强化公共卫生法治保障立法修法座谈会</t>
+  </si>
+  <si>
+    <t>为构建德智体美劳全面培养的教育体系，中共中央、国务院日前就加强新时代大中小学劳动教育提出意见。《意见》指出，劳动教育是中国特色社会主义教育制度的重要内容，直接决定社会主义建设者和接班人的劳动精神面貌、劳动价值取向和劳动技能水平。近年来，一些青少年中出现了不珍惜劳动成果、不想劳动、不会劳动的现象，劳动的独特育人价值在一定程度上被忽视，劳动教育正被淡化、弱化。对此，全党全社会必须高度重视。《意见》要求，要以习近平新时代中国特色社会主义思想为指导，全面贯彻党的教育方针，把劳动教育纳入人才培养全过程，贯通大中小学各学段，贯穿家庭、学校、社会各方面，与德育、智育、体育、美育相融合，实现知行合一，促进学生形成正确的世界观、人生观、价值观。《意见》提出，要全面构建体现时代特征的劳动教育体系，把握劳动教育基本内涵，明确劳动教育总体目标，牢固树立劳动最光荣、劳动最崇高、劳动最伟大、劳动最美丽的观念。要设置劳动教育课程，在大中小学设立劳动教育必修课程。要确定劳动教育内容要求，针对不同学段、类型学生特点，以日常生活劳动、生产劳动和服务性劳动为主要内容开展劳动教育。健全劳动素养评价制度，把劳动素养评价结果作为衡量学生全面发展情况的重要内容，作为评优评先的重要参考和毕业依据，作为高一级学校录取的重要参考或依据。要广泛开展劳动教育实践活动，家庭要发挥在劳动教育中的基础作用，学校要发挥在劳动教育中的主导作用，社会要发挥在劳动教育中的支持作用。鼓励高新企业为学生体验现代科技条件下劳动实践新形态、新方式提供支持。支持学生深入城乡社区、福利院和公共场所等参加志愿服务，开展公益劳动，参与社区治理。要着力提升劳动教育支撑保障能力，多渠道拓展实践场所，多举措加强人才队伍建设，健全经费投入机制，多方面强化安全保障。《意见》还就切实加强劳动教育的组织实施提出要求。</t>
+  </si>
+  <si>
+    <t>中共中央 国务院发布《关于全面加强新时代大中小学劳动教育的意见》</t>
+  </si>
+  <si>
+    <t>甘肃省目前还有8个县没有脱贫摘帽，面对最后的深度贫困堡垒，甘肃省“一县一策”，科学设置产业，让贫困户稳定增收，加快致富。这两天在甘肃东乡县，300头肉牛出栏，通过半年时间育肥，每头肉牛纯利润能达到3500元左右，这让村民信心大增。东乡是甘肃脱贫的主战场，这里家家户户都有养牛的传统，但是因为以前防疫跟不上，饲养成本把握不好，养牛反而成了全县的短板。为此，东乡县请来了养牛企业的专家给养殖户当老师。龙头企业帮助贫困户发展肉牛养殖的同时，完善产业链，并且对接市场，直接带动4万多群众增收。如今，东乡县已建立起以养殖为主的增收产业体系，确保最后45个贫困村今年如期脱贫。根据甘肃“一县一策”的脱贫思路，在陇南宕昌县，40万亩中药材是农民脱贫的主要收入来源。正在建设的标准化示范基地，解决了过去药材品质良莠不齐、种植人力成本高的问题。今年甘肃省将继续做实做强“牛羊菜果薯药”六大产业，在全省创建省级示范合作社600个左右，其中贫困地区约400个，贫困县区每个脱贫主导产业至少有1家龙头企业带动，如期打赢17.5万贫困人口的脱贫攻坚战。</t>
+  </si>
+  <si>
+    <t>甘肃：筑牢产业体系 决战深度贫困</t>
+  </si>
+  <si>
+    <t>本台今天（3月25日）播发央视快评《毫不放松“两手抓” 坚决夺取“双胜利”》。</t>
+  </si>
+  <si>
+    <t>在今天（3月25日）举行的国新办政策例行吹风会上，人力资源社会保障部相关负责人介绍了《国务院办公厅关于应对新冠肺炎疫情影响强化稳就业举措的实施意见》有关情况，《意见》要求加快实施阶段性、有针对性的减税降费政策，拓宽高校毕业生就业渠道。人力资源社会保障部数据显示，2月份共为企业减免养老、失业、工伤三项社保费单位缴费总共1239亿元，预计2-6月份减免额度将超过5000亿元以上。截至目前，今年已有146万户企业享受到失业保险稳岗返还，金额达222亿元，共惠及4951万职工，受益企业户数已超过去年全年。此外，在针对高校毕业生就业方面，《意见》要求扩大企业吸纳规模，对中小微企业招用毕业年度高校毕业生的，给予一次性吸纳就业补贴。国有企业今明两年将扩大高校毕业生招聘规模。</t>
+  </si>
+  <si>
+    <t>人社部：加快实施阶段性减税降费政策稳就业</t>
+  </si>
+  <si>
+    <t>外交部有关负责人今天（3月25日）接受记者采访时表示，这将是G20历史上首次举行领导人视频峰会，也是自疫情暴发以来，习近平主席出席的首场重大多边活动。当前，新冠肺炎疫情在全球多点暴发蔓延，产生严重政治、经济、社会影响。国际社会迫切希望加强合作，抗击疫情。G20是全球危机应对和经济治理重要平台，汇聚了主要发达经济体和新兴市场经济体，在应对2008年国际金融危机过程中发挥了重要作用。在此关键时刻，G20就新冠肺炎疫情专门举行峰会，就应对疫情蔓延、稳定世界经济进行沟通协调，具有重要意义。中方对此次特别峰会有以下期待：一是加强团结。病毒没有国界，疫情面前任何国家都不能独善其身。唯有齐心协力，方能战胜疫情、稳定经济、恢复秩序。G20成员要加强团结，释放共同应对挑战的强有力信号，提振国际社会的信心。二是加强合作。面对全球疫情快速蔓延，国际合作至关重要。中方在全力做好国内防控的同时，及时向有困难的国家提供力所能及的帮助。我们与各方分享经验，共同加强能力建设，提供急需的医疗物资，为各国来华采购提供便利。希望G20成员相互帮助，密切配合，共同维护国际公共卫生安全。三是加强协调。疫情对全球经济产生严重冲击。在确保做好防控的前提下，我国复工复产正在有序进行，为稳定全球产业链、供应链发挥重要作用。我们期待各方加强宏观经济政策协调，采取必要的财政、货币和结构性政策，推动市场开放，确保全球供应链的开放、稳定、安全和顺畅运行，为提振市场信心发挥建设性作用。中方愿与G20其他成员共同努力，推动这次特别峰会取得积极成果。</t>
+  </si>
+  <si>
+    <t>中方愿推动G20特别峰会取得积极成果</t>
+  </si>
+  <si>
+    <t>国家主席习近平将于3月26日在北京出席二十国集团领导人应对新冠肺炎特别峰会。此次峰会由今年二十国集团主席国沙特阿拉伯王国主办，将以视频方式举行。</t>
+  </si>
+  <si>
+    <t>习近平将出席二十国集团领导人应对新冠肺炎特别峰会</t>
+  </si>
+  <si>
+    <t>国际会议</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【央视快评】毫不放松“两手抓” 坚决夺取“双胜利”</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【央视快评】持续巩固来之不易的防控成果</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际会议</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>【央视快评】做细做实防控工作 有序推动复工复产</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际会议</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>央视快评：坚决打好疫情防控全球阻击战</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通运输</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>天气回暖，春色渐浓。眼下，冬小麦田间管理、早稻育秧等春季农业生产正在全国徐徐展开。在江西，早稻育秧工作已全面开始。目前，江西123个单季育秧能力达1000亩以上的水稻工厂化育秧中心全部开始育秧。在吉安市吉水县的育秧工厂里，工作人员24小时采集大棚里的温度、湿度，保障育秧质量。宁夏160家农业社会化综合服务站组织春耕专业服务队开展全程机械化作业；在山东枣庄，微灌技术、物联网管理、无人机作业，都让今年的春耕更省时省力。山西省娄烦县有1000多个蔬菜大棚，为提高大棚效益，今年，当地政府不光帮农户引进了蔬菜新品种，还从山东寿光请来技术人员。这两天，在西藏林芝，人们正在种植4.5万亩春茶。而在海拔低一些的云南、贵州等地，第一批春茶的采摘已经开始。在贵州丹寨，人们可以在线上认领茶园，认领一亩茶园可以帮助一名贫困茶农。现在那里的制茶工厂已经开工，贫困农户采摘的春茶可以进行现场称重结账。</t>
+  </si>
+  <si>
+    <t>天气回暖 春耕备耕正当时</t>
+  </si>
+  <si>
+    <t>新冠肺炎疫情在海外的蔓延，让浙江长兴的一家外贸企业，刚一复工就面临新订单几乎为零的窘境。是坐以待毙还是主动出击，在危机中寻找新的机遇？来看记者从浙江长兴发回的报道。森富机电是长兴一家出口型企业，生产的卷闸门管状电机70%主攻欧美和中东市场。今年前两个月，在国内新冠肺炎疫情严控的情况下，依然实现了60%的外贸订单增量，然而进入3月中旬以后，形势急转直下，新订单几乎为零。外贸搁浅，让本处在观望状态的森富机电，下决心进军国内市场，2月20日，森富机电针对国内市场的内遮阳事业部正式成立。临危受命的内遮阳事业部快速进入角色，在短短一个月的时间内完成了全面进军国内智能家居市场的前期准备。然而，从原来卷闸门的大电机，到内遮阳的小电机，看似转变简单，却存在着一道道技术难关。如何在短时间内实现技术突破？森富机电的研发团队在政府的牵线下，和复旦大学宁波研究院的智慧动力课题小组迅速对接，用了十多天的时间，终于攻克了电机噪音问题。技术的突破带来了市场的突破，由于小电机噪音低、稳定性又高，企业很快就和国内多家智能家居企业达成了合作。主动出击，让企业产品由大变小，内销市场却由小变大，目前企业已经接到了价值500万元的订单，这让森富机电对未来发展有了底气。</t>
+  </si>
+  <si>
+    <t>这家外贸企业如何危中寻机？</t>
+  </si>
+  <si>
+    <t>本台今天（3月29日）播发央视快评《外防输入内防反弹 确保我国疫情防控形势持续向好》。快评说，“外防输入、内防反弹”，这是当前全国疫情防控工作重心所在。虽然全国本土疫情传播已基本阻断，但境外疫情警报持续拉响，务必清醒认识到国内外疫情形势的复杂性和严峻性。疫情防控的大考仍在持续，对科学施策和治理水平提出了更高标准、更严要求。各地各部门要把风险想透、想周全，将措施定细、定扎实，决不能麻痹、疏漏、松懈、厌战，要咬紧牙关，不懈努力，奋力实现疫情防控和经济社会发展双胜利。</t>
+  </si>
+  <si>
+    <t>从今天（3月29日）零点起，除武汉天河机场外，湖北省其他机场的国内客运航班陆续恢复。目前武汉的市内交通正逐步恢复。武汉市长江的两条过江隧道恢复通车。今天，武汉又新开通36条公交线路，武汉市的市内交通逐步恢复正常。昨天下午，251名滞留在武汉的外地人员，搭乘上返乡的大巴车。他们中有在武汉的大学生、务工者，也有一些在武汉中转的乘客，由武汉各区滞留武汉外地人员服务保障专班统一送到汽车站。30日，武汉的11家商场将开门营业。今天，工作人员已经到岗。目前，除武汉外，湖北全省市州1450个交通管控卡口已经拆除。4月8日，武汉市将全面解除离汉离鄂交通管制，届时，剩余的51个卡口将全部拆除。</t>
+  </si>
+  <si>
+    <t>湖北：国内客运航班逐步恢复 滞留人员陆续离鄂</t>
+  </si>
+  <si>
+    <t>习近平主席在北京出席二十国集团领导人应对新冠肺炎特别峰会并发表题为《携手抗疫 共克时艰》的重要讲话时指出，当前，疫情正在全球蔓延，国际社会最需要的是坚定信心、齐心协力、团结应对。中方秉持人类命运共同体理念，愿向其他国家提供力所能及的援助，为世界经济稳定作出贡献。国内外各界人士表示，习近平主席的重要讲话展示了中国负责任的大国担当，为维护全球产业链供应链稳定和恢复世界经济增长注入了信心和动力。习近平主席在讲话中倡议，各国应该联手加大宏观政策对冲力度，防止世界经济陷入衰退。国际人士高度评价中国强调加强国际宏观经济政策协调的做法，认为中国的相关经验值得借鉴。习近平主席在讲话中呼吁，二十国集团成员采取共同举措，减免关税、取消壁垒、畅通贸易，发出有力信号，提振世界经济复苏士气。多国人士认为，在此特殊时期，习近平主席提出的一系列重要倡议，为提振全球市场注入强大信心。习近平主席讲话中指出，要实施有力有效的财政和货币政策，维护全球金融市场稳定，维护全球产业链供应链稳定。多国人士表示，中国正在积极有序推进复工复产，为稳定全球产业链供应链发挥重要作用，讲话中提到的中国扩大改革开放、放宽市场准入等务实举措，将为世界经济稳定作出贡献。联合国负责人道主义事务的副秘书长洛科克表示，中国在全球经济中扮演着非常重要的角色。中国经济正在恢复到正常水平，尤其是制造业和关键产品供应方面表现突出，这对全球抗击疫情取得最终胜利及确保全球经济正常运转将是一个极大贡献。习近平主席在讲话中表示，要维护全球产业链供应链稳定，将加大向国际市场供应原料药、生活必需品、防疫物资等产品。对此，商务部表示将充分发挥境外经商机构作用，及时了解全球产业链供应链运转情况，加强国际合作与协调，共同维护全球产业链供应链稳定，助力各国遏制疫情蔓延势头。世界经济的健康运行离不开产业链的稳定和供应链的安全，新冠肺炎疫情发生后，中国一手抓疫情防控，一手抓经济社会发展，积极推动产业链上下游协同复工复产，恢复贸易大通道，切实保障外贸产业链供应链畅通运转，为维护全球产业链供应链稳定作出了积极努力。</t>
+  </si>
+  <si>
+    <t>加强政策协同提振市场信心 中国务实举措助力世界经济——习近平主席在二十国集团领导人应对新冠肺炎特别峰会重要讲话引发国内外热烈反响</t>
+  </si>
+  <si>
+    <t>国际会议</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通运输</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>央视快评：外防输入内防反弹 确保我国疫情防控形势持续向好</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业农村</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -3019,10 +3256,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E261"/>
+  <dimension ref="A1:E291"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C247" sqref="C247"/>
+    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
+      <selection activeCell="C279" sqref="C279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6586,8 +6823,419 @@
         <v>587</v>
       </c>
     </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>20200322</v>
+      </c>
+      <c r="B262" t="s">
+        <v>310</v>
+      </c>
+      <c r="C262" t="s">
+        <v>609</v>
+      </c>
+      <c r="D262" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>20200322</v>
+      </c>
+      <c r="B263" t="s">
+        <v>610</v>
+      </c>
+      <c r="C263" t="s">
+        <v>607</v>
+      </c>
+      <c r="D263" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>20200322</v>
+      </c>
+      <c r="B264" t="s">
+        <v>610</v>
+      </c>
+      <c r="C264" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>20200323</v>
+      </c>
+      <c r="B265" t="s">
+        <v>621</v>
+      </c>
+      <c r="C265" t="s">
+        <v>611</v>
+      </c>
+      <c r="D265" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>20200323</v>
+      </c>
+      <c r="B266" t="s">
+        <v>310</v>
+      </c>
+      <c r="C266" t="s">
+        <v>622</v>
+      </c>
+      <c r="D266" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>20200323</v>
+      </c>
+      <c r="B267" t="s">
+        <v>623</v>
+      </c>
+      <c r="C267" t="s">
+        <v>614</v>
+      </c>
+      <c r="D267" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>20200324</v>
+      </c>
+      <c r="B268" t="s">
+        <v>610</v>
+      </c>
+      <c r="C268" t="s">
+        <v>616</v>
+      </c>
+      <c r="D268" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>20200324</v>
+      </c>
+      <c r="B269" t="s">
+        <v>310</v>
+      </c>
+      <c r="C269" t="s">
+        <v>624</v>
+      </c>
+      <c r="D269" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>20200324</v>
+      </c>
+      <c r="B270" t="s">
+        <v>610</v>
+      </c>
+      <c r="C270" t="s">
+        <v>619</v>
+      </c>
+      <c r="D270" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>20200325</v>
+      </c>
+      <c r="B271" t="s">
+        <v>653</v>
+      </c>
+      <c r="C271" t="s">
+        <v>652</v>
+      </c>
+      <c r="D271" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>20200325</v>
+      </c>
+      <c r="B272" t="s">
+        <v>653</v>
+      </c>
+      <c r="C272" t="s">
+        <v>650</v>
+      </c>
+      <c r="D272" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>20200325</v>
+      </c>
+      <c r="B273" t="s">
+        <v>654</v>
+      </c>
+      <c r="C273" t="s">
+        <v>648</v>
+      </c>
+      <c r="D273" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>20200325</v>
+      </c>
+      <c r="B274" t="s">
+        <v>310</v>
+      </c>
+      <c r="C274" t="s">
+        <v>655</v>
+      </c>
+      <c r="D274" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>20200325</v>
+      </c>
+      <c r="B275" t="s">
+        <v>600</v>
+      </c>
+      <c r="C275" t="s">
+        <v>645</v>
+      </c>
+      <c r="D275" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>20200326</v>
+      </c>
+      <c r="B276" t="s">
+        <v>656</v>
+      </c>
+      <c r="C276" t="s">
+        <v>643</v>
+      </c>
+      <c r="D276" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>20200326</v>
+      </c>
+      <c r="B277" t="s">
+        <v>338</v>
+      </c>
+      <c r="C277" t="s">
+        <v>641</v>
+      </c>
+      <c r="D277" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>20200326</v>
+      </c>
+      <c r="B278" t="s">
+        <v>310</v>
+      </c>
+      <c r="C278" t="s">
+        <v>657</v>
+      </c>
+      <c r="D278" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>20200326</v>
+      </c>
+      <c r="B279" t="s">
+        <v>658</v>
+      </c>
+      <c r="C279" t="s">
+        <v>638</v>
+      </c>
+      <c r="D279" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>20200327</v>
+      </c>
+      <c r="B280" t="s">
+        <v>659</v>
+      </c>
+      <c r="C280" t="s">
+        <v>636</v>
+      </c>
+      <c r="D280" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>20200327</v>
+      </c>
+      <c r="B281" t="s">
+        <v>659</v>
+      </c>
+      <c r="C281" t="s">
+        <v>634</v>
+      </c>
+      <c r="D281" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>20200327</v>
+      </c>
+      <c r="B282" t="s">
+        <v>310</v>
+      </c>
+      <c r="C282" t="s">
+        <v>660</v>
+      </c>
+      <c r="D282" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>20200328</v>
+      </c>
+      <c r="B283" t="s">
+        <v>661</v>
+      </c>
+      <c r="C283" t="s">
+        <v>631</v>
+      </c>
+      <c r="D283" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>20200328</v>
+      </c>
+      <c r="B284" t="s">
+        <v>310</v>
+      </c>
+      <c r="C284" t="s">
+        <v>662</v>
+      </c>
+      <c r="D284" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>20200328</v>
+      </c>
+      <c r="B285" t="s">
+        <v>663</v>
+      </c>
+      <c r="C285" t="s">
+        <v>628</v>
+      </c>
+      <c r="D285" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>20200328</v>
+      </c>
+      <c r="C286" t="s">
+        <v>626</v>
+      </c>
+      <c r="D286" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>20200329</v>
+      </c>
+      <c r="B287" t="s">
+        <v>673</v>
+      </c>
+      <c r="C287" t="s">
+        <v>672</v>
+      </c>
+      <c r="D287" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>20200329</v>
+      </c>
+      <c r="B288" t="s">
+        <v>674</v>
+      </c>
+      <c r="C288" t="s">
+        <v>670</v>
+      </c>
+      <c r="D288" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>20200329</v>
+      </c>
+      <c r="B289" t="s">
+        <v>310</v>
+      </c>
+      <c r="C289" t="s">
+        <v>675</v>
+      </c>
+      <c r="D289" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>20200329</v>
+      </c>
+      <c r="C290" t="s">
+        <v>667</v>
+      </c>
+      <c r="D290" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>20200329</v>
+      </c>
+      <c r="B291" t="s">
+        <v>676</v>
+      </c>
+      <c r="C291" t="s">
+        <v>665</v>
+      </c>
+      <c r="D291" t="s">
+        <v>664</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D261">
+  <autoFilter ref="A1:D291">
     <sortState ref="A2:D241">
       <sortCondition ref="A47"/>
     </sortState>
